--- a/ESPN_rank300_2016.xlsx
+++ b/ESPN_rank300_2016.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$302</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2347,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E302"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7476,6 +7479,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E302"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://www.espn.com/nfl/player/_/id/13934/antonio-brown"/>
     <hyperlink ref="A4" r:id="rId2" display="http://www.espn.com/nfl/player/_/id/16733/odell-beckham-jr"/>
